--- a/v1/data-base-people.xlsx
+++ b/v1/data-base-people.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +29,12 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -66,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,15 +367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,32 +391,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>